--- a/exp/БИ4.xlsx
+++ b/exp/БИ4.xlsx
@@ -54,20 +54,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -462,182 +475,736 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:DG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:U5"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col hidden="1" outlineLevel="1" width="9.140625" customWidth="1" style="7" min="20" max="44"/>
+    <col hidden="1" outlineLevel="1" width="14.5703125" customWidth="1" style="7" min="45" max="45"/>
+    <col hidden="1" outlineLevel="1" width="9.140625" customWidth="1" style="7" min="46" max="49"/>
+    <col collapsed="1" width="5" customWidth="1" style="7" min="50" max="50"/>
+    <col hidden="1" outlineLevel="1" width="9.140625" customWidth="1" style="7" min="51" max="80"/>
+    <col collapsed="1" width="4.140625" customWidth="1" style="7" min="81" max="81"/>
+    <col hidden="1" outlineLevel="1" width="9.140625" customWidth="1" style="7" min="82" max="111"/>
+    <col collapsed="1" width="5.140625" customWidth="1" style="7" min="112" max="112"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Входящие заявки</t>
         </is>
       </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>Горючесть, серия 1</t>
+        </is>
+      </c>
+      <c r="AX1" s="6" t="n"/>
+      <c r="AY1" s="6" t="inlineStr">
+        <is>
+          <t>Горючесть, серия 2</t>
+        </is>
+      </c>
+      <c r="CC1" s="6" t="n"/>
+      <c r="CD1" s="6" t="inlineStr">
+        <is>
+          <t>Горючесть, серия 3</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="134.25" customFormat="1" customHeight="1" s="5">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>№ заявки</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>ID заявки</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Дата поступления заявки</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>e-mail заказчика</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Цель испытания</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Форма подтверждения соответствия</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Приоритетность заявки</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Оцениваемая характеристика</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Провести испытания во внешней лаборатории</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Наименование внешней лаборатории</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>ЕКН материала (системы)</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Наименование материала (при отсутствии ЕКН)</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Идентификационные признаки образца</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Описание материала, для помещения в протокол</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Тип материала (для отдельных групп методов)</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>Количество образцов передаваемых на испытания</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>Фактическая толщина передаваемого образца</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Целевой показатель (для НИОКР)</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Ссылки на приложенные файлы</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="AJ2" s="3" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="AK2" s="3" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="AS2" s="3" t="inlineStr">
+        <is>
+          <t>Средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>Потеря массы</t>
+        </is>
+      </c>
+      <c r="AU2" s="4" t="inlineStr">
+        <is>
+          <t>Температура</t>
+        </is>
+      </c>
+      <c r="AV2" s="4" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="AW2" s="4" t="inlineStr">
+        <is>
+          <t>Влажность</t>
+        </is>
+      </c>
+      <c r="AX2" s="4" t="n"/>
+      <c r="AY2" s="3" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="AZ2" s="3" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="BA2" s="3" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="BD2" s="3" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="BE2" s="3" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="BF2" s="3" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="BG2" s="3" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="BH2" s="3" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="BI2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="BJ2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="BK2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="BL2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="BM2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="BN2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="BO2" s="3" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="BP2" s="3" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="BQ2" s="3" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="BR2" s="3" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="BS2" s="3" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="BT2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="BU2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="BV2" s="3" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="BW2" s="3" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="BX2" s="3" t="inlineStr">
+        <is>
+          <t>Средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>Потеря массы</t>
+        </is>
+      </c>
+      <c r="BZ2" s="4" t="inlineStr">
+        <is>
+          <t>Температура</t>
+        </is>
+      </c>
+      <c r="CA2" s="4" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="CB2" s="4" t="inlineStr">
+        <is>
+          <t>Влажность</t>
+        </is>
+      </c>
+      <c r="CC2" s="4" t="n"/>
+      <c r="CD2" s="3" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="CF2" s="3" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="CH2" s="3" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="CI2" s="3" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="CJ2" s="3" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="CK2" s="3" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="CL2" s="3" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="CM2" s="3" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="CN2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="CO2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="CP2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="CQ2" s="3" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="CR2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="CS2" s="3" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="CT2" s="3" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="CU2" s="3" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="CV2" s="3" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="CW2" s="3" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="CX2" s="3" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="CY2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="CZ2" s="3" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="DA2" s="3" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="DB2" s="3" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="DC2" s="3" t="inlineStr">
+        <is>
+          <t>Средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="DD2" s="3" t="inlineStr">
+        <is>
+          <t>Потеря массы</t>
+        </is>
+      </c>
+      <c r="DE2" s="4" t="inlineStr">
+        <is>
+          <t>Температура</t>
+        </is>
+      </c>
+      <c r="DF2" s="4" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="DG2" s="4" t="inlineStr">
+        <is>
+          <t>Влажность</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1895738940</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>14.11.2024</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>polishchuk@tn.ru</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Подтверждение соответствия</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Текущий производственный контроль</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>В порядке общей очереди</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>Определение группы горючести</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>500464</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>20248</t>
         </is>
       </c>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr"/>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
+      <c r="Q3" s="1" t="inlineStr"/>
+      <c r="R3" s="1" t="inlineStr"/>
+      <c r="S3" s="1" t="inlineStr"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AY3" s="1" t="n"/>
+      <c r="AZ3" s="1" t="n"/>
+      <c r="BA3" s="1" t="n"/>
+      <c r="BB3" s="1" t="n"/>
+      <c r="BC3" s="1" t="n"/>
+      <c r="BD3" s="1" t="n"/>
+      <c r="BE3" s="1" t="n"/>
+      <c r="BF3" s="1" t="n"/>
+      <c r="BG3" s="1" t="n"/>
+      <c r="BH3" s="1" t="n"/>
+      <c r="BI3" s="1" t="n"/>
+      <c r="BJ3" s="1" t="n"/>
+      <c r="BK3" s="1" t="n"/>
+      <c r="BL3" s="1" t="n"/>
+      <c r="BM3" s="1" t="n"/>
+      <c r="BN3" s="1" t="n"/>
+      <c r="BO3" s="1" t="n"/>
+      <c r="BP3" s="1" t="n"/>
+      <c r="BQ3" s="1" t="n"/>
+      <c r="BR3" s="1" t="n"/>
+      <c r="BS3" s="1" t="n"/>
+      <c r="BT3" s="1" t="n"/>
+      <c r="BU3" s="1" t="n"/>
+      <c r="BV3" s="1" t="n"/>
+      <c r="BW3" s="1" t="n"/>
+      <c r="CD3" s="1" t="n"/>
+      <c r="CE3" s="1" t="n"/>
+      <c r="CF3" s="1" t="n"/>
+      <c r="CG3" s="1" t="n"/>
+      <c r="CH3" s="1" t="n"/>
+      <c r="CI3" s="1" t="n"/>
+      <c r="CJ3" s="1" t="n"/>
+      <c r="CK3" s="1" t="n"/>
+      <c r="CL3" s="1" t="n"/>
+      <c r="CM3" s="1" t="n"/>
+      <c r="CN3" s="1" t="n"/>
+      <c r="CO3" s="1" t="n"/>
+      <c r="CP3" s="1" t="n"/>
+      <c r="CQ3" s="1" t="n"/>
+      <c r="CR3" s="1" t="n"/>
+      <c r="CS3" s="1" t="n"/>
+      <c r="CT3" s="1" t="n"/>
+      <c r="CU3" s="1" t="n"/>
+      <c r="CV3" s="1" t="n"/>
+      <c r="CW3" s="1" t="n"/>
+      <c r="CX3" s="1" t="n"/>
+      <c r="CY3" s="1" t="n"/>
+      <c r="CZ3" s="1" t="n"/>
+      <c r="DA3" s="1" t="n"/>
+      <c r="DB3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -700,6 +1267,81 @@
           <t>12</t>
         </is>
       </c>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AY4" s="1" t="n"/>
+      <c r="AZ4" s="1" t="n"/>
+      <c r="BA4" s="1" t="n"/>
+      <c r="BB4" s="1" t="n"/>
+      <c r="BC4" s="1" t="n"/>
+      <c r="BD4" s="1" t="n"/>
+      <c r="BE4" s="1" t="n"/>
+      <c r="BF4" s="1" t="n"/>
+      <c r="BG4" s="1" t="n"/>
+      <c r="BH4" s="1" t="n"/>
+      <c r="BI4" s="1" t="n"/>
+      <c r="BJ4" s="1" t="n"/>
+      <c r="BK4" s="1" t="n"/>
+      <c r="BL4" s="1" t="n"/>
+      <c r="BM4" s="1" t="n"/>
+      <c r="BN4" s="1" t="n"/>
+      <c r="BO4" s="1" t="n"/>
+      <c r="BP4" s="1" t="n"/>
+      <c r="BQ4" s="1" t="n"/>
+      <c r="BR4" s="1" t="n"/>
+      <c r="BS4" s="1" t="n"/>
+      <c r="BT4" s="1" t="n"/>
+      <c r="BU4" s="1" t="n"/>
+      <c r="BV4" s="1" t="n"/>
+      <c r="BW4" s="1" t="n"/>
+      <c r="CD4" s="1" t="n"/>
+      <c r="CE4" s="1" t="n"/>
+      <c r="CF4" s="1" t="n"/>
+      <c r="CG4" s="1" t="n"/>
+      <c r="CH4" s="1" t="n"/>
+      <c r="CI4" s="1" t="n"/>
+      <c r="CJ4" s="1" t="n"/>
+      <c r="CK4" s="1" t="n"/>
+      <c r="CL4" s="1" t="n"/>
+      <c r="CM4" s="1" t="n"/>
+      <c r="CN4" s="1" t="n"/>
+      <c r="CO4" s="1" t="n"/>
+      <c r="CP4" s="1" t="n"/>
+      <c r="CQ4" s="1" t="n"/>
+      <c r="CR4" s="1" t="n"/>
+      <c r="CS4" s="1" t="n"/>
+      <c r="CT4" s="1" t="n"/>
+      <c r="CU4" s="1" t="n"/>
+      <c r="CV4" s="1" t="n"/>
+      <c r="CW4" s="1" t="n"/>
+      <c r="CX4" s="1" t="n"/>
+      <c r="CY4" s="1" t="n"/>
+      <c r="CZ4" s="1" t="n"/>
+      <c r="DA4" s="1" t="n"/>
+      <c r="DB4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -771,7 +1413,10 @@
       <c r="S5" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="AY1:CB1"/>
+    <mergeCell ref="CD1:DG1"/>
+    <mergeCell ref="T1:AW1"/>
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
